--- a/data_sheets/new-york.xlsx
+++ b/data_sheets/new-york.xlsx
@@ -1,28 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C4E83-8CD9-4489-A973-879E80291C4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stations" sheetId="1" r:id="rId1"/>
+    <sheet name="Line_BMT Broadway Line" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>yearEnd</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>14th Street–Union Square</t>
+  </si>
+  <si>
+    <t>23rd Street</t>
+  </si>
+  <si>
+    <t>28th Street</t>
+  </si>
+  <si>
+    <t>34th Street–Herald Square</t>
+  </si>
+  <si>
+    <t>49th Street</t>
+  </si>
+  <si>
+    <t>57 St–Seventh Avenue</t>
+  </si>
+  <si>
+    <t>Canal Street</t>
+  </si>
+  <si>
+    <t>City Hall</t>
+  </si>
+  <si>
+    <t>Cortlandt Street</t>
+  </si>
+  <si>
+    <t>Eighth Street–New York University</t>
+  </si>
+  <si>
+    <t>Fifth Avenue/59th Street</t>
+  </si>
+  <si>
+    <t>Lexington Avenue/59th Street</t>
+  </si>
+  <si>
+    <t>Prince Street</t>
+  </si>
+  <si>
+    <t>Rector Street</t>
+  </si>
+  <si>
+    <t>Times Square–42nd Street</t>
+  </si>
+  <si>
+    <t>Whitehall Street–South Ferry</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>fontColour</t>
+  </si>
+  <si>
+    <t>lineyear</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>station_from</t>
+  </si>
+  <si>
+    <t>station_to</t>
+  </si>
+  <si>
+    <t>connectionYear</t>
+  </si>
+  <si>
+    <t>connectionYearEnd</t>
+  </si>
+  <si>
+    <t>broadway</t>
+  </si>
+  <si>
+    <t>#fccc0a</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>BMT Broadway Line</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,13 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +191,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +258,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -190,153 +302,680 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1917</v>
+      </c>
+      <c r="D2">
+        <v>-73.990752999999984</v>
+      </c>
+      <c r="E2">
+        <v>40.7348024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1918</v>
+      </c>
+      <c r="D3">
+        <v>-73.989143371582031</v>
+      </c>
+      <c r="E3">
+        <v>40.741363810509839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1918</v>
+      </c>
+      <c r="D4">
+        <v>-73.984425199999976</v>
+      </c>
+      <c r="E4">
+        <v>40.743309199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1918</v>
+      </c>
+      <c r="D5">
+        <v>-73.988788600000021</v>
+      </c>
+      <c r="E5">
+        <v>40.748897900000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1919</v>
+      </c>
+      <c r="D6">
+        <v>-73.984182499999974</v>
+      </c>
+      <c r="E6">
+        <v>40.7598372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1919</v>
+      </c>
+      <c r="D7">
+        <v>-73.980330900000013</v>
+      </c>
+      <c r="E7">
+        <v>40.765563999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1917</v>
+      </c>
+      <c r="D8">
+        <v>-74.001803398132324</v>
+      </c>
+      <c r="E8">
+        <v>40.719518015066427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1918</v>
+      </c>
+      <c r="D9">
+        <v>-74.006738662719727</v>
+      </c>
+      <c r="E9">
+        <v>40.713532950821389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1918</v>
+      </c>
+      <c r="D10">
+        <v>-74.010772705078125</v>
+      </c>
+      <c r="E10">
+        <v>40.711028171847914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1917</v>
+      </c>
+      <c r="D11">
+        <v>-73.992447853088379</v>
+      </c>
+      <c r="E11">
+        <v>40.730608477796636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1919</v>
+      </c>
+      <c r="D12">
+        <v>-73.972427845001221</v>
+      </c>
+      <c r="E12">
+        <v>40.764868278752871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1919</v>
+      </c>
+      <c r="D13">
+        <v>-73.967561999999987</v>
+      </c>
+      <c r="E13">
+        <v>40.762824000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1917</v>
+      </c>
+      <c r="D14">
+        <v>-73.997812271118164</v>
+      </c>
+      <c r="E14">
+        <v>40.724266650572673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1918</v>
+      </c>
+      <c r="D15">
+        <v>-74.012988209724426</v>
+      </c>
+      <c r="E15">
+        <v>40.707746606165919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1918</v>
+      </c>
+      <c r="D16">
+        <v>-73.98667573928833</v>
+      </c>
+      <c r="E16">
+        <v>40.754559682818368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1918</v>
+      </c>
+      <c r="D17">
+        <v>-74.0127837</v>
+      </c>
+      <c r="E17">
+        <v>40.702160999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E6 A8:E17 B7:E7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BDE343-72F3-4832-82E9-A2F8F0EAFC0D}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>1918</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_sheets/new-york.xlsx
+++ b/data_sheets/new-york.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C4E83-8CD9-4489-A973-879E80291C4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C398A34-76BD-4EBD-9FB2-34861622E7A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>BMT Broadway Line</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>BMT Broadway</t>
   </si>
 </sst>
 </file>
@@ -764,80 +770,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BDE343-72F3-4832-82E9-A2F8F0EAFC0D}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1917</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
@@ -854,124 +863,127 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1919</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1919</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1919</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="J7">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
+      <c r="K7">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="J8">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" t="s">
+      <c r="K8">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="J9">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" t="s">
+      <c r="K9">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="J10">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" t="s">
+      <c r="K10">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1917</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1917</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1917</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1917</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
         <v>12</v>
       </c>
-      <c r="J15">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
+      <c r="K15">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="J16">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
+      <c r="K16">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
         <v>18</v>
       </c>
-      <c r="J17">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
+      <c r="K17">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1918</v>
       </c>
     </row>
